--- a/conditions/groups/04.xlsx
+++ b/conditions/groups/04.xlsx
@@ -19,25 +19,25 @@
     <t>town_weather_name</t>
   </si>
   <si>
-    <t>Town01_ClearSunset</t>
-  </si>
-  <si>
-    <t>Town02_HardRainSunset</t>
-  </si>
-  <si>
-    <t>Town03_FogMorning</t>
-  </si>
-  <si>
-    <t>Town04_ClearNight</t>
+    <t>Town05_ClearNight</t>
+  </si>
+  <si>
+    <t>Town05_ClearNoon</t>
+  </si>
+  <si>
+    <t>Town05_ClearSunset</t>
+  </si>
+  <si>
+    <t>Town05_FogMorning</t>
+  </si>
+  <si>
+    <t>Town05_HardRainSunset</t>
   </si>
   <si>
     <t>Town05_WetCloudyNoon</t>
   </si>
   <si>
-    <t>Town06_ClearNoon</t>
-  </si>
-  <si>
-    <t>Town07_WetSunset</t>
+    <t>Town05_WetSunset</t>
   </si>
 </sst>
 </file>

--- a/conditions/groups/04.xlsx
+++ b/conditions/groups/04.xlsx
@@ -14,30 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>town_weather_name</t>
   </si>
   <si>
-    <t>Town05_ClearNight</t>
-  </si>
-  <si>
-    <t>Town05_ClearNoon</t>
-  </si>
-  <si>
-    <t>Town05_ClearSunset</t>
-  </si>
-  <si>
-    <t>Town05_FogMorning</t>
+    <t>Town01_ClearNight</t>
+  </si>
+  <si>
+    <t>Town02_FogMorning</t>
+  </si>
+  <si>
+    <t>Town03_ClearSunset</t>
+  </si>
+  <si>
+    <t>Town04_ClearNoon</t>
   </si>
   <si>
     <t>Town05_HardRainSunset</t>
   </si>
   <si>
-    <t>Town05_WetCloudyNoon</t>
-  </si>
-  <si>
-    <t>Town05_WetSunset</t>
+    <t>Town06_WetSunset</t>
+  </si>
+  <si>
+    <t>Town07_WetSunset</t>
+  </si>
+  <si>
+    <t>Town07_HardRainSunset</t>
+  </si>
+  <si>
+    <t>Town07_ClearNight</t>
+  </si>
+  <si>
+    <t>Town07_ClearSunset</t>
+  </si>
+  <si>
+    <t>Town07_ClearNoon</t>
+  </si>
+  <si>
+    <t>Town07_WetCloudyNoon</t>
+  </si>
+  <si>
+    <t>Town07_FogMorning</t>
+  </si>
+  <si>
+    <t>Town08_WetCloudyNoon</t>
   </si>
 </sst>
 </file>
@@ -369,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +436,41 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
